--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr4_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr4_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.3207439825811933</v>
+        <v>0.32067577195827568</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.30553628363708896</v>
+        <v>0.30558067616911933</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0025008684310300609</v>
+        <v>-0.0024753701868183878</v>
       </c>
       <c r="E3" s="0">
-        <v>3.3441049121613556e-05</v>
+        <v>3.1947600019851781e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00055936741000403415</v>
+        <v>-0.00054531602438564911</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00054235675442971967</v>
+        <v>0.00054291250795693302</v>
       </c>
       <c r="H3" s="0">
-        <v>2.0696925374598149e-05</v>
+        <v>2.1548157888519195e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0009853468845969235</v>
+        <v>-0.0009882259242235058</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0029607490556241567</v>
+        <v>0.0029607524759311388</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.30006908020040907</v>
+        <v>0.29927912833776521</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.00019832150239119806</v>
+        <v>-0.00047674414036869386</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>4.3783947704707968e-05</v>
+        <v>4.3699683352353059e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>9.2809860830916923e-06</v>
+        <v>8.9219695713699257e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>2.9512615146782834e-05</v>
+        <v>2.93576986470051e-05</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0012406049681768301</v>
+        <v>-0.0012389072323672151</v>
       </c>
       <c r="J4" s="0">
-        <v>-3.2682489143998936e-05</v>
+        <v>-3.3745392235319395e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00010939279004285041</v>
+        <v>0.00010938997100673475</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.27733196596832166</v>
+        <v>0.27780564978368477</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0036440515039261353</v>
+        <v>0.0040149054675811171</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0051460759580712057</v>
+        <v>-0.0051616445128940276</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00014637701258595907</v>
+        <v>0.00014711661762084437</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00028664825699714039</v>
+        <v>-0.00029367954326683585</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0013237366330506478</v>
+        <v>-0.0013245540160149033</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.000122018977097282</v>
+        <v>-0.0001226817332593507</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00026131729328883561</v>
+        <v>-0.00026105597521251751</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.0015566957428028161</v>
+        <v>-0.0015567056736553453</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.35228621376502572</v>
+        <v>0.35236365660465274</v>
       </c>
       <c r="C6" s="0">
-        <v>0.025228689338074897</v>
+        <v>0.025148119436511539</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.00012828767693343204</v>
+        <v>-0.00012829680700354224</v>
       </c>
       <c r="F6" s="0">
-        <v>-8.724006761452975e-05</v>
+        <v>-8.7056418044884328e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-8.604833499253599e-05</v>
+        <v>-8.6576969644260371e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0023888552329897829</v>
+        <v>-0.0023967068868898616</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-3.8155455428956486e-05</v>
+        <v>-3.8157285548234832e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.34355056628435876</v>
+        <v>0.34324474238453923</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0017940452602241261</v>
+        <v>-0.0018358930933242824</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00038135322342832724</v>
+        <v>-0.00037688357306681005</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0017643993617425667</v>
+        <v>-0.001767844009046296</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00083730336529216931</v>
+        <v>0.00083920263521812825</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0001598337330553211</v>
+        <v>0.00015948305304989857</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0040001474194639175</v>
+        <v>0.0040001538140037041</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.20238810675039887</v>
+        <v>0.20301645978423263</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.034436781875398677</v>
+        <v>-0.034242057974089649</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>6.4536070060583508e-05</v>
+        <v>6.456177523307208e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00038467424008721063</v>
+        <v>-0.00038458769995817279</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>3.89745750409273e-05</v>
+        <v>3.8993170911051598e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0012906435273605063</v>
+        <v>0.0012944580596345576</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.00012060032862459824</v>
+        <v>0.00012059182073970165</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.15528664079219179</v>
+        <v>0.15612360285270505</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.0013546547829470553</v>
+        <v>-0.0013312323546255721</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0025473756209139073</v>
+        <v>-0.0025542902833823274</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0066612647817513911</v>
+        <v>-0.0066681728089393513</v>
       </c>
       <c r="G9" s="0">
-        <v>0.00078449442373107752</v>
+        <v>0.00077943887493074984</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00021204815312922062</v>
+        <v>-0.00021125644067366647</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.00031060834129633628</v>
+        <v>-0.00031042344141528274</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.00038579303072644455</v>
+        <v>0.0003857875314481618</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.38066791188357346</v>
+        <v>0.38052900968568437</v>
       </c>
       <c r="C10" s="0">
-        <v>0.065218716026449505</v>
+        <v>0.065239114320329666</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>4.5346432885520072e-06</v>
+        <v>4.5259273930504009e-06</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00044279378920610783</v>
+        <v>-0.0004428995244792252</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>4.874286220846144e-06</v>
+        <v>4.8618645659655821e-06</v>
       </c>
       <c r="I10" s="0">
-        <v>-0.00025854498432614017</v>
+        <v>-0.00025564092147157836</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.002104549103415333</v>
+        <v>-0.0021080902119762213</v>
       </c>
       <c r="K10" s="0">
-        <v>0.00013865881301600158</v>
+        <v>0.00013867582425139413</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.42722970461182902</v>
+        <v>0.42726645926055873</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.0048793202245455336</v>
+        <v>-0.0048355294588895131</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0013826967502541311</v>
+        <v>0.0013839191824645137</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0022867091202281448</v>
+        <v>0.0022655839343555268</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0016516077992746226</v>
+        <v>0.001655503180034068</v>
       </c>
       <c r="H11" s="0">
-        <v>5.6897513366752341e-05</v>
+        <v>5.5205835676742057e-05</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.0040723517522433215</v>
+        <v>-0.0040860519502526234</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.026706528223049142</v>
+        <v>0.026706530002628626</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.34111009659532671</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.040838812509852558</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.00010144510796152396</v>
+      </c>
+      <c r="F12" s="0">
+        <v>-2.3485803581274594e-06</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-1.005758470858199e-05</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.00099922148469991216</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>0.00034681916976642135</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr4_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr4_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.32067577195827568</v>
+        <v>0.32042311276003421</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.30558067616911933</v>
+        <v>0.30519187240753376</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0024753701868183878</v>
+        <v>-0.0025001944706732615</v>
       </c>
       <c r="E3" s="0">
-        <v>3.1947600019851781e-05</v>
+        <v>3.2649878721880231e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00054531602438564911</v>
+        <v>-0.00055495333401173815</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00054291250795693302</v>
+        <v>0.00054437708368761356</v>
       </c>
       <c r="H3" s="0">
-        <v>2.1548157888519195e-05</v>
+        <v>2.0931816649154455e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0009882259242235058</v>
+        <v>-0.00099126163056272943</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0029607524759311388</v>
+        <v>0.0029607520539040588</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29927912833776521</v>
+        <v>0.30005744399881573</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.00047674414036869386</v>
+        <v>-0.00029696613469102582</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>4.3699683352353059e-05</v>
+        <v>4.372082939858438e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>8.9219695713699257e-06</v>
+        <v>8.9620961945476293e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>2.93576986470051e-05</v>
+        <v>2.9398717111914804e-05</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0012389072323672151</v>
+        <v>-0.00123860557488538</v>
       </c>
       <c r="J4" s="0">
-        <v>-3.3745392235319395e-05</v>
+        <v>-3.5361664853906307e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00010938997100673475</v>
+        <v>0.0001093476148922301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.27780564978368477</v>
+        <v>0.2772113308836377</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0040149054675811171</v>
+        <v>0.0036737486086110827</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0051616445128940276</v>
+        <v>-0.0051412977777082203</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00014711661762084437</v>
+        <v>0.00014637134215851963</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00029367954326683585</v>
+        <v>-0.00028224221150313129</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0013245540160149033</v>
+        <v>-0.0013309536314363897</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.0001226817332593507</v>
+        <v>-0.00012193860981986615</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00026105597521251751</v>
+        <v>-0.00026098471418883331</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.0015567056736553453</v>
+        <v>-0.0015566978436017398</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.35236365660465274</v>
+        <v>0.3527537269773991</v>
       </c>
       <c r="C6" s="0">
-        <v>0.025148119436511539</v>
+        <v>0.025471497215361856</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.00012829680700354224</v>
+        <v>-0.00012830477678723453</v>
       </c>
       <c r="F6" s="0">
-        <v>-8.7056418044884328e-05</v>
+        <v>-8.6784756854662223e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-8.6576969644260371e-05</v>
+        <v>-8.6389671674062292e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0023967068868898616</v>
+        <v>-0.0023962523945467639</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-3.8157285548234832e-05</v>
+        <v>-3.8164245008631692e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.34324474238453923</v>
+        <v>0.34344108158563696</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0018358930933242824</v>
+        <v>-0.0018518910105703031</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00037688357306681005</v>
+        <v>-0.0003689480243559596</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.001767844009046296</v>
+        <v>-0.0017547003090749159</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00083920263521812825</v>
+        <v>0.00084213386657881772</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00015948305304989857</v>
+        <v>0.00015928838621574881</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0040001538140037041</v>
+        <v>0.0040001521564806963</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.20301645978423263</v>
+        <v>0.20087129221987288</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.034242057974089649</v>
+        <v>-0.034835588686686993</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>6.456177523307208e-05</v>
+        <v>6.4652645875604237e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00038458769995817279</v>
+        <v>-0.00038469413882542917</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>3.8993170911051598e-05</v>
+        <v>3.9135669300079162e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0012944580596345576</v>
+        <v>0.0013000560271930104</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.00012059182073970165</v>
+        <v>0.0001205988075757003</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.15612360285270505</v>
+        <v>0.15403435927346759</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.0013312323546255721</v>
+        <v>-0.001344687303250178</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0025542902833823274</v>
+        <v>-0.0025624471264932116</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0066681728089393513</v>
+        <v>-0.006675577411316286</v>
       </c>
       <c r="G9" s="0">
-        <v>0.00077943887493074984</v>
+        <v>0.00078552493459345906</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00021125644067366647</v>
+        <v>-0.00021135015579681435</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.00031042344141528274</v>
+        <v>-0.00030974483402079002</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.0003857875314481618</v>
+        <v>0.00038578928632737597</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.38052900968568437</v>
+        <v>0.37978402891043483</v>
       </c>
       <c r="C10" s="0">
-        <v>0.065239114320329666</v>
+        <v>0.065644764772117253</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>4.5259273930504009e-06</v>
+        <v>4.3845496016682124e-06</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.0004428995244792252</v>
+        <v>-0.00044536570127058444</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>4.8618645659655821e-06</v>
+        <v>4.7706560618820142e-06</v>
       </c>
       <c r="I10" s="0">
-        <v>-0.00025564092147157836</v>
+        <v>-0.00025860645198344875</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0021080902119762213</v>
+        <v>-0.0020706048822197913</v>
       </c>
       <c r="K10" s="0">
-        <v>0.00013867582425139413</v>
+        <v>0.00013866122724712215</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.42726645926055873</v>
+        <v>0.42575762182386667</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.0048355294588895131</v>
+        <v>-0.0050451547836134767</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0013839191824645137</v>
+        <v>0.0013852556313224741</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0022655839343555268</v>
+        <v>0.0022173643766881636</v>
       </c>
       <c r="G11" s="0">
-        <v>0.001655503180034068</v>
+        <v>0.001665526772917605</v>
       </c>
       <c r="H11" s="0">
-        <v>5.5205835676742057e-05</v>
+        <v>5.2361992332700009e-05</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.0040860519502526234</v>
+        <v>-0.0041012232573554974</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.026706530002628626</v>
+        <v>0.026706506834941135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.34111009659532671</v>
+        <v>0.32779134305977947</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.040838812509852558</v>
+        <v>-0.052585857910355902</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0.00010144510796152396</v>
+        <v>0.000109499256687041</v>
       </c>
       <c r="F12" s="0">
-        <v>-2.3485803581274594e-06</v>
+        <v>0.0019006624314782969</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-1.005758470858199e-05</v>
+        <v>0.00051135241962615941</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.00099922148469991216</v>
+        <v>0.0044253555090448694</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>0.00034681916976642135</v>
+        <v>0.00044042369332619735</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.22971601773014447</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.059305972345626727</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.0033968704549477004</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.0037841742741306418</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.001176405547848732</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-0.00058623612765729561</v>
+      </c>
+      <c r="I13" s="0">
+        <v>1.0065886847116303e-05</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>-0.075336218497038587</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.024860784412107484</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.15748372899624952</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>1.880054847843116e-05</v>
+      </c>
+      <c r="F14" s="0">
+        <v>8.4963162626697149e-05</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>1.7284974055166572e-05</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.022527407514730251</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>9.425399101897769e-06</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr4_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr4_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,11 +463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="12.64453125" customWidth="true"/>
+    <col min="2" max="2" width="13.64453125" customWidth="true"/>
     <col min="3" max="3" width="16.24609375" customWidth="true"/>
     <col min="4" max="4" width="15.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.32042311276003421</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.30519187240753376</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.30005744399881573</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.2772113308836377</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.3527537269773991</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.34344108158563696</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.20087129221987288</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.15403435927346759</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.37978402891043483</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.42575762182386667</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.32779134305977947</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.22971601773014447</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.024860784412107484</v>
+        <v>0.049554622232295398</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.15748372899624952</v>
+        <v>-0.13393790686446921</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>1.880054847843116e-05</v>
+        <v>4.4614450938846346e-06</v>
       </c>
       <c r="F14" s="0">
-        <v>8.4963162626697149e-05</v>
+        <v>-0.00032314958119418941</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>1.7284974055166572e-05</v>
+        <v>-0.0024213683689398094</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.022527407514730251</v>
+        <v>-0.006585738944665063</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>9.425399101897769e-06</v>
+        <v>0.0010542285115431038</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.20949423183546018</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.098163816337653836</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.0037632449028641214</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.0031745054890319024</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.01092856216479432</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>0.019481561347742066</v>
       </c>
     </row>
   </sheetData>
